--- a/Excel diagram/diagram.xlsx
+++ b/Excel diagram/diagram.xlsx
@@ -911,11 +911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="53770752"/>
-        <c:axId val="153500416"/>
+        <c:axId val="112408576"/>
+        <c:axId val="72837376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53770752"/>
+        <c:axId val="112408576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153500416"/>
+        <c:crossAx val="72837376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -933,11 +933,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153500416"/>
+        <c:axId val="72837376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.5"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -946,7 +944,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53770752"/>
+        <c:crossAx val="112408576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -973,15 +971,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>561974</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1293,7 +1291,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel diagram/diagram.xlsx
+++ b/Excel diagram/diagram.xlsx
@@ -911,11 +911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112408576"/>
-        <c:axId val="72837376"/>
+        <c:axId val="121845760"/>
+        <c:axId val="82274560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112408576"/>
+        <c:axId val="121845760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72837376"/>
+        <c:crossAx val="82274560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -933,8 +933,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72837376"/>
+        <c:axId val="82274560"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -944,7 +945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112408576"/>
+        <c:crossAx val="121845760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -956,6 +957,793 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0800000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9500000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6699999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9199999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.9909999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.238E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4610000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3449999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3419999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.379E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3780000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4790000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.3529999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2763999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0038999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7619999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5340000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3329999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.424E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.522E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8219999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13406799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0560000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9354E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7694999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6808E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6595999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1377E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1326999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3164000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.52110400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.199992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15764500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.152922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.148893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14833399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2758999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2847000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0013999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>0.62792800000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60643800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59053299999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59629100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33798899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32814399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35824899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="3">
+                  <c:v>2.4254349999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3632469999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3889550000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.346576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3096300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.434841</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="55400448"/>
+        <c:axId val="135260992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55400448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135260992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135260992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55400448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -993,6 +1781,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1290,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel diagram/diagram.xlsx
+++ b/Excel diagram/diagram.xlsx
@@ -896,6 +896,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.225E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8110000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8863999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4730000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30115700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2003219999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4714710000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -911,11 +935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121845760"/>
-        <c:axId val="82274560"/>
+        <c:axId val="117913600"/>
+        <c:axId val="78342400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121845760"/>
+        <c:axId val="117913600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82274560"/>
+        <c:crossAx val="78342400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -933,9 +957,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82274560"/>
+        <c:axId val="78342400"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -945,7 +968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121845760"/>
+        <c:crossAx val="117913600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,6 +1098,9 @@
                 <c:pt idx="8">
                   <c:v>3.9199999999999999E-4</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2600000000000001E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1168,6 +1194,9 @@
                 <c:pt idx="8">
                   <c:v>1.4790000000000001E-3</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.225E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1261,6 +1290,9 @@
                 <c:pt idx="8">
                   <c:v>5.8219999999999999E-3</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8110000000000002E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1354,6 +1386,9 @@
                 <c:pt idx="8">
                   <c:v>2.3164000000000001E-2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8863999999999999E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1447,6 +1482,9 @@
                 <c:pt idx="8">
                   <c:v>9.0013999999999997E-2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4730000000000005E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1534,6 +1572,9 @@
                 <c:pt idx="8">
                   <c:v>0.35824899999999998</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30115700000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1618,6 +1659,9 @@
                 <c:pt idx="8">
                   <c:v>1.434841</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2003219999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1684,6 +1728,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="9">
+                  <c:v>3.4714710000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1699,11 +1746,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55400448"/>
-        <c:axId val="135260992"/>
+        <c:axId val="118366208"/>
+        <c:axId val="78344704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55400448"/>
+        <c:axId val="118366208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135260992"/>
+        <c:crossAx val="78344704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1721,7 +1768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135260992"/>
+        <c:axId val="78344704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55400448"/>
+        <c:crossAx val="118366208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1758,16 +1805,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28573</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2106,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A14:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,251 +2170,6 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>16</v>
-      </c>
-      <c r="C1">
-        <v>32</v>
-      </c>
-      <c r="D1">
-        <v>64</v>
-      </c>
-      <c r="E1">
-        <v>128</v>
-      </c>
-      <c r="F1">
-        <v>256</v>
-      </c>
-      <c r="G1">
-        <v>512</v>
-      </c>
-      <c r="H1">
-        <v>1024</v>
-      </c>
-      <c r="I1">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.003E-3</v>
-      </c>
-      <c r="C2">
-        <v>7.9909999999999998E-3</v>
-      </c>
-      <c r="D2">
-        <v>3.3529999999999997E-2</v>
-      </c>
-      <c r="E2">
-        <v>0.13406799999999999</v>
-      </c>
-      <c r="F2">
-        <v>0.52110400000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>8.4699999999999999E-4</v>
-      </c>
-      <c r="C3">
-        <v>3.238E-3</v>
-      </c>
-      <c r="D3">
-        <v>1.2763999999999999E-2</v>
-      </c>
-      <c r="E3">
-        <v>5.0560000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <v>0.199992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="C4">
-        <v>2.4610000000000001E-3</v>
-      </c>
-      <c r="D4">
-        <v>1.0038999999999999E-2</v>
-      </c>
-      <c r="E4">
-        <v>3.9354E-2</v>
-      </c>
-      <c r="F4">
-        <v>0.15764500000000001</v>
-      </c>
-      <c r="G4">
-        <v>0.62792800000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>6.0800000000000003E-4</v>
-      </c>
-      <c r="C5">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="D5">
-        <v>9.7619999999999998E-3</v>
-      </c>
-      <c r="E5">
-        <v>3.7694999999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.152922</v>
-      </c>
-      <c r="G5">
-        <v>0.60643800000000003</v>
-      </c>
-      <c r="H5">
-        <v>2.4254349999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5.9500000000000004E-4</v>
-      </c>
-      <c r="C6">
-        <v>2.3449999999999999E-3</v>
-      </c>
-      <c r="D6">
-        <v>9.5340000000000008E-3</v>
-      </c>
-      <c r="E6">
-        <v>3.6808E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.148893</v>
-      </c>
-      <c r="G6">
-        <v>0.59053299999999997</v>
-      </c>
-      <c r="H6">
-        <v>2.3632469999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5.9800000000000001E-4</v>
-      </c>
-      <c r="C7">
-        <v>2.3419999999999999E-3</v>
-      </c>
-      <c r="D7">
-        <v>9.3329999999999993E-3</v>
-      </c>
-      <c r="E7">
-        <v>3.6595999999999997E-2</v>
-      </c>
-      <c r="F7">
-        <v>0.14833399999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.59629100000000002</v>
-      </c>
-      <c r="H7">
-        <v>2.3889550000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3.6699999999999998E-4</v>
-      </c>
-      <c r="C8">
-        <v>1.379E-3</v>
-      </c>
-      <c r="D8">
-        <v>5.424E-3</v>
-      </c>
-      <c r="E8">
-        <v>2.1377E-2</v>
-      </c>
-      <c r="F8">
-        <v>8.2758999999999999E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.33798899999999998</v>
-      </c>
-      <c r="H8">
-        <v>1.346576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>3.5799999999999997E-4</v>
-      </c>
-      <c r="C9">
-        <v>1.3780000000000001E-3</v>
-      </c>
-      <c r="D9">
-        <v>5.522E-3</v>
-      </c>
-      <c r="E9">
-        <v>2.1326999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>8.2847000000000004E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.32814399999999999</v>
-      </c>
-      <c r="H9">
-        <v>1.3096300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3.9199999999999999E-4</v>
-      </c>
-      <c r="C10">
-        <v>1.4790000000000001E-3</v>
-      </c>
-      <c r="D10">
-        <v>5.8219999999999999E-3</v>
-      </c>
-      <c r="E10">
-        <v>2.3164000000000001E-2</v>
-      </c>
-      <c r="F10">
-        <v>9.0013999999999997E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.35824899999999998</v>
-      </c>
-      <c r="H10">
-        <v>1.434841</v>
-      </c>
-    </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
@@ -2431,6 +2233,9 @@
       <c r="J15">
         <v>3.9199999999999999E-4</v>
       </c>
+      <c r="K15">
+        <v>3.2600000000000001E-4</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2463,8 +2268,11 @@
       <c r="J16">
         <v>1.4790000000000001E-3</v>
       </c>
+      <c r="K16">
+        <v>1.225E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>64</v>
       </c>
@@ -2495,8 +2303,11 @@
       <c r="J17">
         <v>5.8219999999999999E-3</v>
       </c>
+      <c r="K17">
+        <v>4.8110000000000002E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>128</v>
       </c>
@@ -2527,8 +2338,11 @@
       <c r="J18">
         <v>2.3164000000000001E-2</v>
       </c>
+      <c r="K18">
+        <v>1.8863999999999999E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>256</v>
       </c>
@@ -2559,8 +2373,11 @@
       <c r="J19">
         <v>9.0013999999999997E-2</v>
       </c>
+      <c r="K19">
+        <v>7.4730000000000005E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>512</v>
       </c>
@@ -2585,8 +2402,11 @@
       <c r="J20">
         <v>0.35824899999999998</v>
       </c>
+      <c r="K20">
+        <v>0.30115700000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1024</v>
       </c>
@@ -2608,10 +2428,16 @@
       <c r="J21">
         <v>1.434841</v>
       </c>
+      <c r="K21">
+        <v>1.2003219999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1736</v>
+      </c>
+      <c r="K22">
+        <v>3.4714710000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Excel diagram/diagram.xlsx
+++ b/Excel diagram/diagram.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>#0</t>
   </si>
@@ -935,11 +935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117913600"/>
-        <c:axId val="78342400"/>
+        <c:axId val="109983744"/>
+        <c:axId val="70412544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117913600"/>
+        <c:axId val="109983744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78342400"/>
+        <c:crossAx val="70412544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -957,7 +957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78342400"/>
+        <c:axId val="70412544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,14 +968,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117913600"/>
+        <c:crossAx val="109983744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74671552256603069"/>
+          <c:y val="4.4931512467191598E-2"/>
+          <c:w val="0.19489036159904852"/>
+          <c:h val="0.81117823162729652"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1008,7 +1017,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1024,9 +1033,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$14:$K$14</c:f>
@@ -1120,9 +1126,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$14:$K$14</c:f>
@@ -1216,9 +1219,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$14:$K$14</c:f>
@@ -1312,9 +1312,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$14:$K$14</c:f>
@@ -1408,9 +1405,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$14:$K$14</c:f>
@@ -1504,9 +1498,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$14:$K$14</c:f>
@@ -1594,9 +1585,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$14:$K$14</c:f>
@@ -1681,9 +1669,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$14:$K$14</c:f>
@@ -1746,11 +1731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118366208"/>
-        <c:axId val="78344704"/>
+        <c:axId val="110444544"/>
+        <c:axId val="70414848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118366208"/>
+        <c:axId val="110444544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78344704"/>
+        <c:crossAx val="70414848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1768,18 +1753,20 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78344704"/>
+        <c:axId val="70414848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118366208"/>
+        <c:crossAx val="110444544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,7 +1777,2870 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8418423503513671E-2"/>
+          <c:y val="4.3912189451707433E-2"/>
+          <c:w val="0.69226342674907571"/>
+          <c:h val="0.85608117814172546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4699999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0800000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9500000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6699999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5799999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9199999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2600000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.9909999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.238E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4610000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3449999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3419999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.379E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3780000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4790000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.225E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.3529999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2763999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0038999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7619999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5340000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3329999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.424E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.522E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8219999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8110000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13406799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0560000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9354E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7694999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6808E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6595999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1377E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1326999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3164000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8863999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.52110400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.199992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15764500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.152922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.148893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14833399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2758999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2847000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0013999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4730000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>0.62792800000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60643800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59053299999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59629100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33798899999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32814399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35824899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30115700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="3">
+                  <c:v>2.4254349999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3632469999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3889550000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.346576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3096300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.434841</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2003219999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="9">
+                  <c:v>3.4714710000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="123204608"/>
+        <c:axId val="123326976"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="123204608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123326976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="123326976"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0"/>
+                  <a:t>Logarithm of runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0743374820082964E-3"/>
+              <c:y val="0.22045911367371937"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123204608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79001703751532237"/>
+          <c:y val="8.5494549639162504E-2"/>
+          <c:w val="0.18593812267011031"/>
+          <c:h val="0.71971850959259576"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln w="12700" cmpd="sng"/>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="63500" cap="rnd" cmpd="sng">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>335.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1340.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5211.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$15:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>505.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$15:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>393.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1576.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6279.2800000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$15:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1529.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6064.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24254.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$15:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>368.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1488.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5905.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23632.469999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$15:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1483.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5962.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23889.550000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$15:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>827.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3379.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13465.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$15:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.5799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213.26999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>828.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3281.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13096.300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$15:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>900.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3582.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14348.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$15:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$15:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>747.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3011.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12003.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34714.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="110446592"/>
+        <c:axId val="70417152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110446592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70417152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70417152"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110446592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.8418423503513671E-2"/>
+          <c:y val="4.3912189451707433E-2"/>
+          <c:w val="0.69226342674907571"/>
+          <c:h val="0.85608117814172546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>79.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>335.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1340.6799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>505.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>393.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>365.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213.77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213.26999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5211.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1576.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1529.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1488.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1483.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>827.59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>828.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>747.30000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="2">
+                  <c:v>6279.2800000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6064.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5905.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5962.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3379.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3281.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3582.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3011.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="3">
+                  <c:v>24254.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23632.469999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23889.550000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13465.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13096.300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14348.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12003.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1736</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>#0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="9">
+                  <c:v>34714.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="74226176"/>
+        <c:axId val="110773376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="74226176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110773376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110773376"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0"/>
+                  <a:t>Logarithm of runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0743374820082964E-3"/>
+              <c:y val="0.22045911367371937"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74226176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79001703751532237"/>
+          <c:y val="8.5494549639162504E-2"/>
+          <c:w val="0.18593812267011031"/>
+          <c:h val="0.71971850959259576"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln w="12700" cmpd="sng"/>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="63500" cap="rnd" cmpd="sng">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$1:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$1:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$1:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$1:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$1:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$1:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$1:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$1:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="110842880"/>
+        <c:axId val="110775680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="110842880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110775680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110775680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110842880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -1805,16 +4655,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28573</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1858,6 +4708,142 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333373</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2155,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A14:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,24 +5435,455 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A14:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f>Sheet1!B15*10000</f>
+        <v>20.03</v>
+      </c>
+      <c r="C15">
+        <f>Sheet1!C15*10000</f>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D15">
+        <f>Sheet1!D15*10000</f>
+        <v>6.25</v>
+      </c>
+      <c r="E15">
+        <f>Sheet1!E15*10000</f>
+        <v>6.08</v>
+      </c>
+      <c r="F15">
+        <f>Sheet1!F15*10000</f>
+        <v>5.95</v>
+      </c>
+      <c r="G15">
+        <f>Sheet1!G15*10000</f>
+        <v>5.98</v>
+      </c>
+      <c r="H15">
+        <f>Sheet1!H15*10000</f>
+        <v>3.67</v>
+      </c>
+      <c r="I15">
+        <f>Sheet1!I15*10000</f>
+        <v>3.5799999999999996</v>
+      </c>
+      <c r="J15">
+        <f>Sheet1!J15*10000</f>
+        <v>3.92</v>
+      </c>
+      <c r="K15">
+        <f>Sheet1!K15*10000</f>
+        <v>3.2600000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <f>Sheet1!B16*10000</f>
+        <v>79.91</v>
+      </c>
+      <c r="C16">
+        <f>Sheet1!C16*10000</f>
+        <v>32.380000000000003</v>
+      </c>
+      <c r="D16">
+        <f>Sheet1!D16*10000</f>
+        <v>24.61</v>
+      </c>
+      <c r="E16">
+        <f>Sheet1!E16*10000</f>
+        <v>23.999999999999996</v>
+      </c>
+      <c r="F16">
+        <f>Sheet1!F16*10000</f>
+        <v>23.45</v>
+      </c>
+      <c r="G16">
+        <f>Sheet1!G16*10000</f>
+        <v>23.419999999999998</v>
+      </c>
+      <c r="H16">
+        <f>Sheet1!H16*10000</f>
+        <v>13.790000000000001</v>
+      </c>
+      <c r="I16">
+        <f>Sheet1!I16*10000</f>
+        <v>13.780000000000001</v>
+      </c>
+      <c r="J16">
+        <f>Sheet1!J16*10000</f>
+        <v>14.790000000000001</v>
+      </c>
+      <c r="K16">
+        <f>Sheet1!K16*10000</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <f>Sheet1!B17*10000</f>
+        <v>335.29999999999995</v>
+      </c>
+      <c r="C17">
+        <f>Sheet1!C17*10000</f>
+        <v>127.63999999999999</v>
+      </c>
+      <c r="D17">
+        <f>Sheet1!D17*10000</f>
+        <v>100.38999999999999</v>
+      </c>
+      <c r="E17">
+        <f>Sheet1!E17*10000</f>
+        <v>97.62</v>
+      </c>
+      <c r="F17">
+        <f>Sheet1!F17*10000</f>
+        <v>95.34</v>
+      </c>
+      <c r="G17">
+        <f>Sheet1!G17*10000</f>
+        <v>93.33</v>
+      </c>
+      <c r="H17">
+        <f>Sheet1!H17*10000</f>
+        <v>54.24</v>
+      </c>
+      <c r="I17">
+        <f>Sheet1!I17*10000</f>
+        <v>55.22</v>
+      </c>
+      <c r="J17">
+        <f>Sheet1!J17*10000</f>
+        <v>58.22</v>
+      </c>
+      <c r="K17">
+        <f>Sheet1!K17*10000</f>
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>128</v>
+      </c>
+      <c r="B18">
+        <f>Sheet1!B18*10000</f>
+        <v>1340.6799999999998</v>
+      </c>
+      <c r="C18">
+        <f>Sheet1!C18*10000</f>
+        <v>505.6</v>
+      </c>
+      <c r="D18">
+        <f>Sheet1!D18*10000</f>
+        <v>393.54</v>
+      </c>
+      <c r="E18">
+        <f>Sheet1!E18*10000</f>
+        <v>376.95</v>
+      </c>
+      <c r="F18">
+        <f>Sheet1!F18*10000</f>
+        <v>368.08</v>
+      </c>
+      <c r="G18">
+        <f>Sheet1!G18*10000</f>
+        <v>365.96</v>
+      </c>
+      <c r="H18">
+        <f>Sheet1!H18*10000</f>
+        <v>213.77</v>
+      </c>
+      <c r="I18">
+        <f>Sheet1!I18*10000</f>
+        <v>213.26999999999998</v>
+      </c>
+      <c r="J18">
+        <f>Sheet1!J18*10000</f>
+        <v>231.64000000000001</v>
+      </c>
+      <c r="K18">
+        <f>Sheet1!K18*10000</f>
+        <v>188.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>256</v>
+      </c>
+      <c r="B19">
+        <f>Sheet1!B19*10000</f>
+        <v>5211.04</v>
+      </c>
+      <c r="C19">
+        <f>Sheet1!C19*10000</f>
+        <v>1999.92</v>
+      </c>
+      <c r="D19">
+        <f>Sheet1!D19*10000</f>
+        <v>1576.45</v>
+      </c>
+      <c r="E19">
+        <f>Sheet1!E19*10000</f>
+        <v>1529.22</v>
+      </c>
+      <c r="F19">
+        <f>Sheet1!F19*10000</f>
+        <v>1488.93</v>
+      </c>
+      <c r="G19">
+        <f>Sheet1!G19*10000</f>
+        <v>1483.34</v>
+      </c>
+      <c r="H19">
+        <f>Sheet1!H19*10000</f>
+        <v>827.59</v>
+      </c>
+      <c r="I19">
+        <f>Sheet1!I19*10000</f>
+        <v>828.47</v>
+      </c>
+      <c r="J19">
+        <f>Sheet1!J19*10000</f>
+        <v>900.14</v>
+      </c>
+      <c r="K19">
+        <f>Sheet1!K19*10000</f>
+        <v>747.30000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>512</v>
+      </c>
+      <c r="D20">
+        <f>Sheet1!D20*10000</f>
+        <v>6279.2800000000007</v>
+      </c>
+      <c r="E20">
+        <f>Sheet1!E20*10000</f>
+        <v>6064.38</v>
+      </c>
+      <c r="F20">
+        <f>Sheet1!F20*10000</f>
+        <v>5905.33</v>
+      </c>
+      <c r="G20">
+        <f>Sheet1!G20*10000</f>
+        <v>5962.91</v>
+      </c>
+      <c r="H20">
+        <f>Sheet1!H20*10000</f>
+        <v>3379.89</v>
+      </c>
+      <c r="I20">
+        <f>Sheet1!I20*10000</f>
+        <v>3281.44</v>
+      </c>
+      <c r="J20">
+        <f>Sheet1!J20*10000</f>
+        <v>3582.49</v>
+      </c>
+      <c r="K20">
+        <f>Sheet1!K20*10000</f>
+        <v>3011.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1024</v>
+      </c>
+      <c r="E21">
+        <f>Sheet1!E21*10000</f>
+        <v>24254.35</v>
+      </c>
+      <c r="F21">
+        <f>Sheet1!F21*10000</f>
+        <v>23632.469999999998</v>
+      </c>
+      <c r="G21">
+        <f>Sheet1!G21*10000</f>
+        <v>23889.550000000003</v>
+      </c>
+      <c r="H21">
+        <f>Sheet1!H21*10000</f>
+        <v>13465.76</v>
+      </c>
+      <c r="I21">
+        <f>Sheet1!I21*10000</f>
+        <v>13096.300000000001</v>
+      </c>
+      <c r="J21">
+        <f>Sheet1!J21*10000</f>
+        <v>14348.41</v>
+      </c>
+      <c r="K21">
+        <f>Sheet1!K21*10000</f>
+        <v>12003.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1736</v>
+      </c>
+      <c r="K22">
+        <f>Sheet1!K22*10000</f>
+        <v>34714.71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>